--- a/tut05/output/0501ME14.xlsx
+++ b/tut05/output/0501ME14.xlsx
@@ -550,22 +550,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6.428571428571429</v>
+        <v>6.43</v>
       </c>
       <c r="C6" t="n">
-        <v>6.636363636363637</v>
+        <v>6.64</v>
       </c>
       <c r="D6" t="n">
-        <v>6.851063829787234</v>
+        <v>6.85</v>
       </c>
       <c r="E6" t="n">
-        <v>6.877551020408164</v>
+        <v>6.88</v>
       </c>
       <c r="F6" t="n">
-        <v>7.217391304347826</v>
+        <v>7.22</v>
       </c>
       <c r="G6" t="n">
-        <v>7.347826086956522</v>
+        <v>7.35</v>
       </c>
       <c r="H6" t="n">
         <v>7.95</v>
@@ -612,28 +612,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6.428571428571429</v>
+        <v>6.43</v>
       </c>
       <c r="C8" t="n">
-        <v>6.526881720430108</v>
+        <v>6.53</v>
       </c>
       <c r="D8" t="n">
-        <v>6.635714285714286</v>
+        <v>6.64</v>
       </c>
       <c r="E8" t="n">
-        <v>6.698412698412699</v>
+        <v>6.7</v>
       </c>
       <c r="F8" t="n">
         <v>6.8</v>
       </c>
       <c r="G8" t="n">
-        <v>6.889679715302491</v>
+        <v>6.89</v>
       </c>
       <c r="H8" t="n">
-        <v>7.021806853582555</v>
+        <v>7.02</v>
       </c>
       <c r="I8" t="n">
-        <v>7.124653739612189</v>
+        <v>7.12</v>
       </c>
     </row>
   </sheetData>
